--- a/pok.xlsx
+++ b/pok.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -52,258 +52,303 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Aron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal Claw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aron.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ash` Pikachu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electro Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashpikachu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headbuut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bagon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterfree VMAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-Max Toxbreeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterfly saliva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">butterfreevmax.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castform Sunny  From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Pressure Blast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castfrom_sunnyfrom.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charizard VMAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claw Slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-Max Willdfire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charizardvmax.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charmander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charmander.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cresselia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photon Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cersselia.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuckManeNecrozma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusk Shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rusty Nail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duskmanenecrozma.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eevee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vee-Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stampede</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eevee.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emolga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volt Swich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emolga.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golduck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golduck.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potion Gaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">grimer.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippowdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hippowdon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jangmo-o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Headbutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jangmoo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jynx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dazzle Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysterious Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jynx.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leafon GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Bloom GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leafnogx.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillipup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lillipup.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeadButt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litleo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunala GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moongiest Beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Fall GX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunalagx.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mankey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three-Step Strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Mankey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mankey.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morpeko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trunder Shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morpeko.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pikachu</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuzzle</t>
-  </si>
-  <si>
     <t xml:space="preserve">VoltTackle</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic</t>
-  </si>
-  <si>
     <t xml:space="preserve">pikachu.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ash` Pikachu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electro Ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashpikachu.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gnaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headbuut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bagon.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butterfree VMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-Max Toxbreeze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butterfly saliva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">butterfreevmax.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castform Sunny  From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weather Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-Pressure Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castfrom_sunnyfrom.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charizard VMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claw Slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-Max Willdfire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charizardvmax.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charmander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charmander.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cresselia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photon Laser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cersselia.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuckManeNecrozma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dusk Shot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rusty Nail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duskmanenecrozma.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eevee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vee-Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stampede</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eevee.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emolga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volt Swich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emolga.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golduck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golduck.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horror Psychic Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horror_psychicenergy.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy_Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jangmo-o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Headbutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jangmoo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jynx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dazzle Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mysterious Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jynx.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leafon GX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Bloom GX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leafnogx.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Litleo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HeadButt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">litleo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunala GX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moongiest Beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Fall GX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunalagx.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mankey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three-Step Strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Mankey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mankey.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pikachu &amp; Zekrom GX</t>
   </si>
   <si>
@@ -388,6 +433,15 @@
     <t xml:space="preserve">solgaleogx.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Squirtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rain Splash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squrtle.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ultra Necrozma</t>
   </si>
   <si>
@@ -398,6 +452,15 @@
   </si>
   <si>
     <t xml:space="preserve">ultranaecrozma.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikavolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electro Blaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikavolt.png</t>
   </si>
 </sst>
 </file>
@@ -407,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,22 +497,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
       <charset val="238"/>
     </font>
     <font>
@@ -461,6 +511,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="238"/>
@@ -483,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,12 +563,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,11 +581,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,24 +597,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Nagłówek" xfId="20"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6A8759"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -614,22 +686,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,31 +738,31 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -700,28 +773,28 @@
       <c r="A3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="0" t="s">
@@ -773,7 +846,7 @@
       <c r="D5" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -901,7 +974,7 @@
       <c r="D9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -1052,32 +1125,32 @@
       <c r="A14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>67</v>
+      <c r="B14" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>67</v>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,28 +1158,28 @@
         <v>70</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>71</v>
+        <v>120</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>16</v>
@@ -1114,22 +1187,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>13</v>
@@ -1149,13 +1222,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>79</v>
@@ -1167,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>80</v>
@@ -1181,25 +1254,25 @@
         <v>81</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>84</v>
@@ -1209,55 +1282,55 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="0" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="6" t="n">
-        <v>120</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="J19" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>13</v>
@@ -1266,70 +1339,70 @@
         <v>14</v>
       </c>
       <c r="I20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="7" t="s">
         <v>97</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="3" t="n">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="0" t="s">
         <v>101</v>
       </c>
       <c r="J22" s="0" t="s">
@@ -1337,64 +1410,64 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="0" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>16</v>
@@ -1402,22 +1475,22 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="D25" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>60</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>13</v>
@@ -1426,112 +1499,304 @@
         <v>34</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="J26" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="I27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="J27" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B28" s="7" t="n">
+        <v>130</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="J28" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
